--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5272CF49-7D05-4E9F-8F69-01BCDFB55FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19962EC1-5266-4F13-B4A5-3CD13FCFC262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Priority</t>
   </si>
@@ -204,40 +204,43 @@
     <t>• Enemies follow a non-straight path to the end goal.</t>
   </si>
   <si>
-    <t>When money balance changes, MoneyManager checks if building options from Builder class can be afforded. The BuyEnabler component (attached to BuyMenu UI object) observes MoneyManager and disables/enables buttons corresponding to a given tower, when onMoneyChanged event is triggered. Upgrades not yet possible.</t>
-  </si>
-  <si>
-    <t>When OnClick event is triggered in Cursor component, Builder class recieves clickInfo, from which it can check if the clicked Cell isFree.</t>
-  </si>
-  <si>
-    <t>Observer Pattern =&gt; for now only Builder class reacts to the onClick event, but I may decide to add SFX and VFX or something else later =&gt; coupling reduction.</t>
-  </si>
-  <si>
     <t>The list of avaiable towers can be adjusted in editor (Builder component). But to make them accessible, a button has to be added manually. (Likewise with removing / replacing towers)</t>
   </si>
   <si>
     <t>You can find all tower levels in each tower's prefab under TowerSlot.</t>
   </si>
   <si>
-    <t>GridXZ&lt;Cell&gt; is the class used for the grid. GridManager creates the grid. LevelSetUp determines which cells are marked as build zones, by detecting where the path tiles are placed and modifying neighbouring cells. (Cell.BuildZone = true). Builder class is observing Cursor class - when Cursor's onClick event is triggered, Builder reciever clickInfo containing information about the clicked Cell (clickedInfo). It then checks if the Cell is a buildzone and proceeds accordingly. If the tower is built or sold, Builder triggers an onBuilt or onSold event (TransactionData). MoneyManager observes Builder and adjusts money balance when the events are triggered.</t>
-  </si>
-  <si>
-    <t>Observer Pattern =&gt; for now only MoneyManager reacts to the onBuilt and onSold events, but I may decided to add SFX and VFX or something else later. =&gt; coupling reduction. (see below for why Builder observes Cursor)</t>
-  </si>
-  <si>
     <t>towers have no function or script for now, but have different visuals</t>
   </si>
   <si>
     <t>MoneyDisplay observes MoneyManager and adjusts the value shown when onMoneyChanged event is triggered.</t>
   </si>
   <si>
-    <t>Observer pattern =&gt; multiple components react to the onMoneyChanged event. Reduces coupling. MoneyManager unaffected if I modify how I enable purchases.</t>
-  </si>
-  <si>
     <t>Observer pattern =&gt; multiple components react to the onMoneyChanged event. Reduces coupling. MoneyManager unaffected if I change the display.</t>
   </si>
   <si>
-    <t>The Cursor's model changes colour based on if it's hovering over a Cell that returns CanBuild() as true or false (blue = true, red = false). There are placeholder indicators for the build and non build area.</t>
+    <t>GridXZ&lt;Cell&gt; is the class used for the grid. GridManager creates the grid. LevelSetUp determines which cells are marked as build zones, by detecting where the path tiles are placed and modifying neighbouring cells. (Cell.BuildZone = true). Builder is responsible for handling building/selling towers (including dealing with money balance). It obvserves the Cursor class and when onClick event is triggered, it builds/sells tower if possible, then subtracts/adds money to the balance.</t>
+  </si>
+  <si>
+    <t>When OnClick event is triggered in Cursor component, Builder component recieves clickInfo, from which it can check if the clicked Cell isFree.</t>
+  </si>
+  <si>
+    <t>Observer pattern, same as in row 17.</t>
+  </si>
+  <si>
+    <t>Observer Pattern =&gt; for now only Builder class reacts to the onClick event, but I may decide to add SFX and VFX or something else later =&gt; coupling reduction. I've already changed how money is managed, and I am glad to not had to remove any code from cursor for that.</t>
+  </si>
+  <si>
+    <t>When money balance changes, Builder class checks if building options from can be afforded. The BuyEnabler component (attached to BuyMenu UI object) observes Builder and disables/enables buttons corresponding to a given tower, when onMoneyChanged event is triggered. Upgrades not yet possible.</t>
+  </si>
+  <si>
+    <t>The Cursor's model changes colour based on if it's hovering over a Cell that returns CanBuild() as true or false (blue = true, red = false). There are placeholder indicators for the build and non build area =&gt; (color coded, reed = invalid, green valid)</t>
+  </si>
+  <si>
+    <t>The UI scales with screen size and the elements are anchored to edges of the screen, ensuring their correct location no matter the resolution.</t>
+  </si>
+  <si>
+    <t>Observer pattern =&gt; multiple components react to the onMoneyChanged event =&gt; more may come later. No need to add more variables to Builder class if SFX/VFX/something else is added later.</t>
   </si>
 </sst>
 </file>
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -912,7 +915,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -922,7 +925,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -936,17 +939,17 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -957,7 +960,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="15"/>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1009,7 +1012,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1024,17 +1027,17 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1055,7 +1058,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1087,10 +1090,10 @@
       <c r="B33" s="5"/>
       <c r="C33" s="14"/>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -1104,14 +1107,14 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1146,20 +1149,22 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="C40"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19962EC1-5266-4F13-B4A5-3CD13FCFC262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91E6D5E-1EE0-431A-B715-0421DBE8FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Priority</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Observer pattern =&gt; multiple components react to the onMoneyChanged event =&gt; more may come later. No need to add more variables to Builder class if SFX/VFX/something else is added later.</t>
+  </si>
+  <si>
+    <t>Removed money manager class and integrated money into builder. MoneyManager did nothing but receive transaction data and pass it along - I now use less events - only one per build/sale, instead of two… I may need to readd an on build/sale event, but in that case it likely wont need to carry any sort transaction data.</t>
+  </si>
+  <si>
+    <t>Misc notes/reflection (on my own):</t>
   </si>
 </sst>
 </file>
@@ -743,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1288,11 +1294,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91E6D5E-1EE0-431A-B715-0421DBE8FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA9528-30E4-483E-ACD3-5949B55A7E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Priority</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>Misc notes/reflection (on my own):</t>
+  </si>
+  <si>
+    <t>The game starts in the BuilderState, where the enemies do not spawn, but the player can buy and sell towers. After a set amout of time (default 15 seconds), the enemies start spawning (SpawningState). Once all enemies in a wave have spawned, the game enters a Waiting phase - which lasts until enemies all die. After which the game enters BuilderState again. The game states are changed by the LevelLFSM class. All states are children of the GameState class. Player can continue to build/sell during the Spawning and Waiting states.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite state machine. The game has several distinct states, where the behaviour of the level is different =&gt; 1. countdown to wave, spawning enemies, checking if enemies are dead. Using FSM makes it easier to adjust those states and add more if needed (i.e. maybe Game Over state?)  </t>
+  </si>
+  <si>
+    <t>An class inheriting from IEnemySpawningStrategy spawns enemies at a dedicated spawn point.</t>
+  </si>
+  <si>
+    <t>Strategy pattern. I first implemented a test class, and it will be easier to replace it with a more complex class that also inherits from the same interface later on. I may also use different classes for spawning different sorts of enemies.</t>
+  </si>
+  <si>
+    <t>Enemies use navmesh to navigate to the goal. The enemies follow a set of navpoints along the path. They automatically find objects tagged as NavPoint and  save the coordinates to a navigation queue.</t>
+  </si>
+  <si>
+    <t>Enemy visual assets are in game.</t>
+  </si>
+  <si>
+    <t>TimerToWave observes the BuilderState and updates the display every time it recieves onTick event.</t>
   </si>
 </sst>
 </file>
@@ -749,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,14 +834,18 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -841,23 +866,29 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
@@ -886,8 +917,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -1103,13 +1136,15 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AA9528-30E4-483E-ACD3-5949B55A7E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB30A5-B620-4C2E-9B41-035B2A59FD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Priority</t>
   </si>
@@ -261,13 +261,28 @@
     <t>Strategy pattern. I first implemented a test class, and it will be easier to replace it with a more complex class that also inherits from the same interface later on. I may also use different classes for spawning different sorts of enemies.</t>
   </si>
   <si>
-    <t>Enemies use navmesh to navigate to the goal. The enemies follow a set of navpoints along the path. They automatically find objects tagged as NavPoint and  save the coordinates to a navigation queue.</t>
-  </si>
-  <si>
     <t>Enemy visual assets are in game.</t>
   </si>
   <si>
     <t>TimerToWave observes the BuilderState and updates the display every time it recieves onTick event.</t>
+  </si>
+  <si>
+    <t>You can add Waves to a list in WaveSpawnerQueue (IWaveSpawnerStrategy). Waves contain a list of Batches. Batches contain adjustable enemy queues (List&lt;EnemySO&gt;) and adjustable intervals between each enemy spawned, as well as adjustable intervals between this and the next batch. SpawnEnemyFromSO (IEnemySpawnStrategy) spawns enemies from the Batch. Separating waves into batches lets one easily set non uniform intervals between enemies if that's desired. A single batch in a wave will also function with no issue, if the interval is supposed to be constant.</t>
+  </si>
+  <si>
+    <t>Strategy Pattern. Makes it easy to switch Wave/Enemy spawn methods. I.e. if the decision is made to change the enemy spawn method to one based on percentage chance of spawning a type of enemy.</t>
+  </si>
+  <si>
+    <t>Waves are stored in WaveManager object. Only wave 0 will be launched for now.</t>
+  </si>
+  <si>
+    <t>Enemies use navmesh to navigate to the goal. The enemies follow a set of navpoints along the path. They automatically find objects tagged as NavPoint and  save the coordinates to a navigation queue. They ignore collisions with each other.</t>
+  </si>
+  <si>
+    <t>IEnemy contains methods for setting these properties. The BasicEnemy (the only enemy class for now) inherits from this interface and these values are set when the object is spawned via IEnemySpawnStrategy</t>
+  </si>
+  <si>
+    <t>The properties are dictated via EnemySO scriptable objects, which should contain a component inheriting from Ienemy interface. Visuals adjustement is not yet possible witout hard coding.</t>
   </si>
 </sst>
 </file>
@@ -770,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -779,7 +794,8 @@
     <col min="1" max="1" width="118.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="47.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
@@ -814,24 +830,30 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="189" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
@@ -880,14 +902,14 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -902,13 +924,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -919,7 +943,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -934,13 +958,15 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
@@ -1143,7 +1169,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB30A5-B620-4C2E-9B41-035B2A59FD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA674EE-9A9D-4749-B681-D590DF8160F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>Strategy Pattern. Makes it easy to switch Wave/Enemy spawn methods. I.e. if the decision is made to change the enemy spawn method to one based on percentage chance of spawning a type of enemy.</t>
   </si>
   <si>
-    <t>Waves are stored in WaveManager object. Only wave 0 will be launched for now.</t>
-  </si>
-  <si>
     <t>Enemies use navmesh to navigate to the goal. The enemies follow a set of navpoints along the path. They automatically find objects tagged as NavPoint and  save the coordinates to a navigation queue. They ignore collisions with each other.</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>The properties are dictated via EnemySO scriptable objects, which should contain a component inheriting from Ienemy interface. Visuals adjustement is not yet possible witout hard coding.</t>
+  </si>
+  <si>
+    <t>Waves are stored in WaveManager object. All waves will be launched, but will reset to first wave when reaching last wave.</t>
   </si>
 </sst>
 </file>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -830,14 +830,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -909,7 +909,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -931,7 +931,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -965,7 +965,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -999,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA674EE-9A9D-4749-B681-D590DF8160F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D6A58-55CF-482A-AE43-C72D62F25B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -941,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D6A58-55CF-482A-AE43-C72D62F25B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0414EA-2899-432B-AB0E-9529B440D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>Priority</t>
   </si>
@@ -210,9 +210,6 @@
     <t>You can find all tower levels in each tower's prefab under TowerSlot.</t>
   </si>
   <si>
-    <t>towers have no function or script for now, but have different visuals</t>
-  </si>
-  <si>
     <t>MoneyDisplay observes MoneyManager and adjusts the value shown when onMoneyChanged event is triggered.</t>
   </si>
   <si>
@@ -252,18 +249,9 @@
     <t>The game starts in the BuilderState, where the enemies do not spawn, but the player can buy and sell towers. After a set amout of time (default 15 seconds), the enemies start spawning (SpawningState). Once all enemies in a wave have spawned, the game enters a Waiting phase - which lasts until enemies all die. After which the game enters BuilderState again. The game states are changed by the LevelLFSM class. All states are children of the GameState class. Player can continue to build/sell during the Spawning and Waiting states.</t>
   </si>
   <si>
-    <t xml:space="preserve">Finite state machine. The game has several distinct states, where the behaviour of the level is different =&gt; 1. countdown to wave, spawning enemies, checking if enemies are dead. Using FSM makes it easier to adjust those states and add more if needed (i.e. maybe Game Over state?)  </t>
-  </si>
-  <si>
     <t>An class inheriting from IEnemySpawningStrategy spawns enemies at a dedicated spawn point.</t>
   </si>
   <si>
-    <t>Strategy pattern. I first implemented a test class, and it will be easier to replace it with a more complex class that also inherits from the same interface later on. I may also use different classes for spawning different sorts of enemies.</t>
-  </si>
-  <si>
-    <t>Enemy visual assets are in game.</t>
-  </si>
-  <si>
     <t>TimerToWave observes the BuilderState and updates the display every time it recieves onTick event.</t>
   </si>
   <si>
@@ -279,17 +267,41 @@
     <t>IEnemy contains methods for setting these properties. The BasicEnemy (the only enemy class for now) inherits from this interface and these values are set when the object is spawned via IEnemySpawnStrategy</t>
   </si>
   <si>
-    <t>The properties are dictated via EnemySO scriptable objects, which should contain a component inheriting from Ienemy interface. Visuals adjustement is not yet possible witout hard coding.</t>
-  </si>
-  <si>
     <t>Waves are stored in WaveManager object. All waves will be launched, but will reset to first wave when reaching last wave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite state machine. The game has several distinct states, where the behaviour of the level is different =&gt; 1. countdown to wave, 2. spawning enemies, 3. checking if enemies are dead,after all have spawned. Using FSM makes it easier to adjust those states and add more if needed (i.e. maybe Game Over state?)  </t>
+  </si>
+  <si>
+    <t>HQ has a max health property, it's tweakable in editor.</t>
+  </si>
+  <si>
+    <t>There is a basic enemy and a slightly stronger enemy. More can be added with scriptable objects.</t>
+  </si>
+  <si>
+    <t>The properties are dictated via EnemySO scriptable objects, including visuals. EnemySO spawns a template prefab and adds the visual via code.</t>
+  </si>
+  <si>
+    <t>When a player hovers over a corresponding button, a tooltip will pop up showing these properties. There is also a range visual displayer by the cursor, receiving tha range in question from BuildingTypeSO</t>
+  </si>
+  <si>
+    <t>There are 3 different towers all inherting from the abstract Tower class</t>
+  </si>
+  <si>
+    <t>non functional</t>
+  </si>
+  <si>
+    <t>Debuff not implemented, projectiles and AOE is visible.</t>
+  </si>
+  <si>
+    <t>Upgrades are separate scriptable objects. The upgrade can be added to the base tower scriptable object.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,8 +387,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +424,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -415,12 +439,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,8 +492,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -837,7 +866,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -849,10 +878,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -863,10 +892,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -888,18 +917,16 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
@@ -909,18 +936,20 @@
       <c r="B9" s="5"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
@@ -931,19 +960,19 @@
       <c r="B11" s="5"/>
       <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -953,17 +982,17 @@
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>76</v>
       </c>
@@ -987,10 +1016,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -999,8 +1028,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
@@ -1011,10 +1042,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -1023,9 +1054,9 @@
         <v>15</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1035,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1045,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1055,18 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
@@ -1099,20 +1134,22 @@
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
@@ -1155,10 +1192,10 @@
       <c r="B33" s="5"/>
       <c r="C33" s="14"/>
       <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -1169,7 +1206,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1181,7 +1218,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1191,7 +1228,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1223,7 +1260,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1281,7 +1318,7 @@
         <v>34</v>
       </c>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="12" t="s">
         <v>49</v>
       </c>
@@ -1329,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="12" t="s">
         <v>49</v>
       </c>
@@ -1359,10 +1396,10 @@
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0414EA-2899-432B-AB0E-9529B440D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA1792-1A2A-493D-B1D3-68CBC41233DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Priority</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Upgrades are separate scriptable objects. The upgrade can be added to the base tower scriptable object.</t>
+  </si>
+  <si>
+    <t>If _upgrade is true, builder component will check if the clicked cell has a tower on it, and if the tower can be upgraded. Then it will proceed to upgrade it if possible. The total value on the cell increases accordingly</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -494,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -814,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,13 +1123,15 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
@@ -1248,7 +1256,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1343,6 +1351,7 @@
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="12" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="12" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="12" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1396,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBA1792-1A2A-493D-B1D3-68CBC41233DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC170806-444E-4E5F-A125-49285AE39E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Priority</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Observer Pattern =&gt; for now only Builder class reacts to the onClick event, but I may decide to add SFX and VFX or something else later =&gt; coupling reduction. I've already changed how money is managed, and I am glad to not had to remove any code from cursor for that.</t>
   </si>
   <si>
-    <t>When money balance changes, Builder class checks if building options from can be afforded. The BuyEnabler component (attached to BuyMenu UI object) observes Builder and disables/enables buttons corresponding to a given tower, when onMoneyChanged event is triggered. Upgrades not yet possible.</t>
-  </si>
-  <si>
     <t>The Cursor's model changes colour based on if it's hovering over a Cell that returns CanBuild() as true or false (blue = true, red = false). There are placeholder indicators for the build and non build area =&gt; (color coded, reed = invalid, green valid)</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>There are 3 different towers all inherting from the abstract Tower class</t>
   </si>
   <si>
-    <t>non functional</t>
-  </si>
-  <si>
     <t>Debuff not implemented, projectiles and AOE is visible.</t>
   </si>
   <si>
@@ -298,6 +292,18 @@
   </si>
   <si>
     <t>If _upgrade is true, builder component will check if the clicked cell has a tower on it, and if the tower can be upgraded. Then it will proceed to upgrade it if possible. The total value on the cell increases accordingly</t>
+  </si>
+  <si>
+    <t>When money balance changes, Builder class checks if building options from can be afforded. The BuyEnabler component (attached to BuyMenu UI object) observes Builder and disables/enables buttons corresponding to a given tower, when onMoneyChanged event is triggered. Similarly, upgrade monitor checks the grid and if the cell is not free, it will compare current money (given via MoneyChanged event) to the cost of the upgrade of the tower located on a tile. A green arrow will appear if tower can be upgraded.</t>
+  </si>
+  <si>
+    <t>SingleTargetTower explains function</t>
+  </si>
+  <si>
+    <t>AOETower explains function</t>
+  </si>
+  <si>
+    <t>Based of AOE tower. Debuffs non functional</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,7 +878,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -884,10 +890,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -898,10 +904,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -930,7 +936,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -942,7 +948,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -954,7 +960,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -966,7 +972,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -978,7 +984,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1000,7 +1006,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1036,7 +1042,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1062,7 +1068,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1073,7 +1079,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
@@ -1083,7 +1091,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
@@ -1094,7 +1104,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1106,7 +1116,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="15"/>
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1130,22 +1140,22 @@
       <c r="B26" s="5"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1156,7 +1166,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1214,7 +1224,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1226,7 +1236,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="14"/>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1268,7 +1278,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="14"/>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1405,10 +1415,10 @@
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC170806-444E-4E5F-A125-49285AE39E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE07F1-565A-4F33-87E3-8E2CAA9F49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Priority</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Based of AOE tower. Debuffs non functional</t>
+  </si>
+  <si>
+    <t>I have used the scriptable approah after teacher's recommendation.</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1172,9 @@
         <v>79</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE07F1-565A-4F33-87E3-8E2CAA9F49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C2D4F-AC71-4A17-93D9-38594F03791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>Priority</t>
   </si>
@@ -261,15 +261,6 @@
     <t>Enemies use navmesh to navigate to the goal. The enemies follow a set of navpoints along the path. They automatically find objects tagged as NavPoint and  save the coordinates to a navigation queue. They ignore collisions with each other.</t>
   </si>
   <si>
-    <t>IEnemy contains methods for setting these properties. The BasicEnemy (the only enemy class for now) inherits from this interface and these values are set when the object is spawned via IEnemySpawnStrategy</t>
-  </si>
-  <si>
-    <t>Waves are stored in WaveManager object. All waves will be launched, but will reset to first wave when reaching last wave.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finite state machine. The game has several distinct states, where the behaviour of the level is different =&gt; 1. countdown to wave, 2. spawning enemies, 3. checking if enemies are dead,after all have spawned. Using FSM makes it easier to adjust those states and add more if needed (i.e. maybe Game Over state?)  </t>
-  </si>
-  <si>
     <t>HQ has a max health property, it's tweakable in editor.</t>
   </si>
   <si>
@@ -288,15 +279,9 @@
     <t>Debuff not implemented, projectiles and AOE is visible.</t>
   </si>
   <si>
-    <t>Upgrades are separate scriptable objects. The upgrade can be added to the base tower scriptable object.</t>
-  </si>
-  <si>
     <t>If _upgrade is true, builder component will check if the clicked cell has a tower on it, and if the tower can be upgraded. Then it will proceed to upgrade it if possible. The total value on the cell increases accordingly</t>
   </si>
   <si>
-    <t>When money balance changes, Builder class checks if building options from can be afforded. The BuyEnabler component (attached to BuyMenu UI object) observes Builder and disables/enables buttons corresponding to a given tower, when onMoneyChanged event is triggered. Similarly, upgrade monitor checks the grid and if the cell is not free, it will compare current money (given via MoneyChanged event) to the cost of the upgrade of the tower located on a tile. A green arrow will appear if tower can be upgraded.</t>
-  </si>
-  <si>
     <t>SingleTargetTower explains function</t>
   </si>
   <si>
@@ -307,6 +292,48 @@
   </si>
   <si>
     <t>I have used the scriptable approah after teacher's recommendation.</t>
+  </si>
+  <si>
+    <t>Waves are stored in WaveManager object. All waves will be launched.</t>
+  </si>
+  <si>
+    <t>Upgrades are separate BuildingTypeSO scriptable objects. The upgrade can be added to the base tower scriptable object. The upgrades' params can be adjusted like any other towers'.</t>
+  </si>
+  <si>
+    <t>Enemy contains methods for setting these properties. The BasicEnemy (the only enemy class for now) inherits from this abstract class and these values are set when the object is spawned via IEnemySpawnStrategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scriptable Objects are handy when looking for a simple way to create multiple similar objects - instead of creating many prefabs, I have used a single blank prefab - the parameters and visuals are applied to it when the enemy is instantiated. While I am only using one type of enemy's main script (BasicEnemy), I have made it possible to add more variations of the Enemy abstract class the EnemySO class. </t>
+  </si>
+  <si>
+    <t>Similarly to the EnemySO class, more towers can be easily added using scriptable objects. However, the process isn't as "automated" as in case of enemies. Prefabs need to be prepared ahead of time. It was my early attempt at using scriptable objects, so I could improve the process, but it's low on my priotity list atm.</t>
+  </si>
+  <si>
+    <t>As above.</t>
+  </si>
+  <si>
+    <t>HQ inherits from the IAttackable interface and has a health bar UI prefab attached to it. You cannnot however see numerical values of how much HP you have left.</t>
+  </si>
+  <si>
+    <t>BasicEnemy class inherits from the IAttackable interface and has a health bar UI prefab attached to it. HP will go down on hit.</t>
+  </si>
+  <si>
+    <t>Healthbar observes parent IAttackable and adjusts the visuals accordingly on hit. Less coupling.</t>
+  </si>
+  <si>
+    <t>HQ will trigger an onDie event when it reaches 0 hp. This event will instantly make the game go into GameOver state. Waiting state can trigger an onGameWon event if it detects no more enemies and has been previously notified that this is the final wave. The game will enter GameOverState.</t>
+  </si>
+  <si>
+    <t>Both LevelFSM and a UI script (DetectGameOver) observe HQ's static event onDie. DetectGameOver also observes the onGameWon static event from the Waiting State. There is only a single instance of a component that can trigger these events, so I chose to use public static events.</t>
+  </si>
+  <si>
+    <t>ended up readding money manager later.</t>
+  </si>
+  <si>
+    <t>Finite state machine. The game has several distinct states, where the behaviour of the level is different =&gt; 1. countdown to wave, 2. spawning enemies, 3. checking if enemies are dead,after all have spawned. Using FSM makes it easier to adjust those states and add more if needed (i.e. maybe Game Over state?) . GameOverState was in fact added later.</t>
+  </si>
+  <si>
+    <t>When money balance changes, Builder class checks if building options from can be afforded.BuildSelectors observe MoneyManager and disable/enable buttons corresponding to a given tower, when onMoneyChanged event is triggered. Similarly, upgrade monitor checks the grid and if the cell is not free, it will compare current money (given via MoneyChanged event) to the cost of the upgrade of the tower located on a tile. A green arrow will appear if tower can be upgraded.</t>
   </si>
 </sst>
 </file>
@@ -507,7 +534,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -874,14 +901,14 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -910,7 +937,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -963,7 +990,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="15"/>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -975,21 +1002,23 @@
       <c r="B11" s="5"/>
       <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,7 +1038,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1045,7 +1074,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="14"/>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1071,7 +1100,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1083,7 +1112,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="14"/>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1095,7 +1124,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="14"/>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1107,7 +1136,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1119,7 +1148,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="15"/>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1143,37 +1172,39 @@
       <c r="B26" s="5"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -1246,34 +1277,46 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -1430,6 +1473,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C2D4F-AC71-4A17-93D9-38594F03791B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22D2E5-D35A-48A8-8F45-83A5987DBC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Assets/Docs/Requirements Checklist aw.xlsx
+++ b/Assets/Docs/Requirements Checklist aw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\Y2\Term 2\Software Architecture\Tower-DefenceV2\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D22D2E5-D35A-48A8-8F45-83A5987DBC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5A6EA2-A63F-4CE4-A440-904660B2A04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>Priority</t>
   </si>
@@ -335,12 +335,18 @@
   <si>
     <t>When money balance changes, Builder class checks if building options from can be afforded.BuildSelectors observe MoneyManager and disable/enable buttons corresponding to a given tower, when onMoneyChanged event is triggered. Similarly, upgrade monitor checks the grid and if the cell is not free, it will compare current money (given via MoneyChanged event) to the cost of the upgrade of the tower located on a tile. A green arrow will appear if tower can be upgraded.</t>
   </si>
+  <si>
+    <t>FXManager recieves the onEnemyKilled event from the Event bus and triggers the VFX at appropriate location.</t>
+  </si>
+  <si>
+    <t>One of the several objects that recieves this event. Easier than making it observe every single enemy, unsubscribing from killed enemies... Etc.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -426,15 +432,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,11 +462,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -478,13 +472,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,15 +524,11 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1021,14 +1010,18 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
@@ -1409,7 +1402,7 @@
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="12" t="s">
         <v>49</v>
       </c>
